--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55274</v>
+        <v>38314</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Natália Lima</t>
+          <t>Isadora Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>12319.01</v>
+        <v>3252.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35912</v>
+        <v>83976</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Vitória Mendes</t>
+          <t>Juan Novaes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>10316.45</v>
+        <v>9931.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75324</v>
+        <v>43694</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Diego Cardoso</t>
+          <t>Milena Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>9511.18</v>
+        <v>6917.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92051</v>
+        <v>69753</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Caroline Fernandes</t>
+          <t>Lorenzo Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>5006.47</v>
+        <v>9467.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81974</v>
+        <v>50093</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. João Martins</t>
+          <t>Dra. Bárbara Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,89 +606,89 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>4469.48</v>
+        <v>2550.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95305</v>
+        <v>11928</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Marcos Vinicius Novaes</t>
+          <t>Nina Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>5356.8</v>
+        <v>4861.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20636</v>
+        <v>56997</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emanuelly Pinto</t>
+          <t>Catarina Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>6217.26</v>
+        <v>11975.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43881</v>
+        <v>31210</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela da Conceição</t>
+          <t>Sabrina Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>3928.66</v>
+        <v>6892.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64154</v>
+        <v>58736</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando da Paz</t>
+          <t>Dr. Theo Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>3625.61</v>
+        <v>11105.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38539</v>
+        <v>1593</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Barros</t>
+          <t>Camila Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>7115.85</v>
+        <v>11967.64</v>
       </c>
     </row>
   </sheetData>
